--- a/html/VANS-leverandører_excel.XLSX
+++ b/html/VANS-leverandører_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8020C7E-3E68-4630-8EC5-B8FFC3E3F1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84E9F0-FBEC-48B5-AF4A-D4084BA60F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="VANS_leverandører">'Opdateret d. 12-05-2025'!$A$1:$F$3</definedName>
+    <definedName name="VANS_leverandører">'Opdateret d. 16-05-2025'!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/VANS-leverandører_excel.XLSX
+++ b/html/VANS-leverandører_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84E9F0-FBEC-48B5-AF4A-D4084BA60F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A309636-B7E7-4677-9735-FAEADAF7E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="VANS_leverandører">'Opdateret d. 16-05-2025'!$A$1:$F$3</definedName>
+    <definedName name="VANS_leverandører">'Opdateret d. 02-12-2025'!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/VANS-leverandører_excel.XLSX
+++ b/html/VANS-leverandører_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A309636-B7E7-4677-9735-FAEADAF7E278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A86EEA-A473-4713-AF31-5278969361A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/VANS-leverandører_excel.XLSX
+++ b/html/VANS-leverandører_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A86EEA-A473-4713-AF31-5278969361A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18972C-3305-4491-B3B4-06FB0769AE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="VANS_leverandører">'Opdateret d. 02-12-2025'!$A$1:$F$3</definedName>
+    <definedName name="VANS_leverandører">'Opdateret d. 05-12-2025'!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -403,9 +403,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -445,7 +445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/html/VANS-leverandører_excel.XLSX
+++ b/html/VANS-leverandører_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18972C-3305-4491-B3B4-06FB0769AE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611F0513-F73D-4258-8782-2A5A8860E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="VANS_leverandører">'Opdateret d. 05-12-2025'!$A$1:$F$3</definedName>
+    <definedName name="VANS_leverandører">'Opdateret d. 19-12-2025'!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -403,9 +403,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -445,7 +445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
